--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/国内/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/国内/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1154 +538,686 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.24</v>
+        <v>469.058602</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.88</v>
+        <v>6304.872357</v>
       </c>
       <c r="D2" t="n">
-        <v>1025.33</v>
+        <v>19394.60243352</v>
       </c>
       <c r="E2" t="n">
-        <v>988.35</v>
+        <v>2377.8688616173</v>
       </c>
       <c r="F2" t="n">
-        <v>1435.66</v>
+        <v>25772.9332938874</v>
       </c>
       <c r="G2" t="n">
-        <v>2082.65</v>
+        <v>33260.799686</v>
       </c>
       <c r="H2" t="n">
-        <v>3917.01</v>
+        <v>31934.3734470527</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>19309.58</v>
+        <v>130024.73085</v>
       </c>
       <c r="K2" t="n">
-        <v>-52.13</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>713.992937</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46692</v>
+      </c>
       <c r="M2" t="n">
-        <v>569.89</v>
+        <v>4071.8999029698</v>
       </c>
       <c r="N2" t="n">
-        <v>4681.02</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>39202.8748333348</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-2354.27387711411</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1547.19305069493</v>
+      </c>
       <c r="Q2" t="n">
-        <v>11766.67</v>
+        <v>97226.5845625244</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>45753.59</v>
+        <v>416212.724786703</v>
       </c>
       <c r="T2" t="n">
-        <v>987.86</v>
+        <v>6116.99074898</v>
       </c>
       <c r="U2" t="n">
-        <v>-1312.67</v>
+        <v>2323.54249251305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-635.5498209901</v>
+        <v>-727</v>
       </c>
       <c r="C3" t="n">
-        <v>2635.081944</v>
+        <v>7348</v>
       </c>
       <c r="D3" t="n">
-        <v>-271.9668161609</v>
+        <v>26753</v>
       </c>
       <c r="E3" t="n">
-        <v>603.71138511</v>
+        <v>1530</v>
       </c>
       <c r="F3" t="n">
-        <v>2928.44021525231</v>
+        <v>13234</v>
       </c>
       <c r="G3" t="n">
-        <v>1800.7833357439</v>
+        <v>36154</v>
       </c>
       <c r="H3" t="n">
-        <v>6249.7193562</v>
+        <v>25057</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>28080.5563303926</v>
+        <v>114222</v>
       </c>
       <c r="K3" t="n">
-        <v>141.6311700703</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>1072</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20542</v>
+      </c>
       <c r="M3" t="n">
-        <v>208.44854739</v>
+        <v>3211</v>
       </c>
       <c r="N3" t="n">
-        <v>7275.9363765916</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>21196</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-6466</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2258</v>
+      </c>
       <c r="Q3" t="n">
-        <v>20259.2260994568</v>
+        <v>95764</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>69083.40033232891</v>
+        <v>356014</v>
       </c>
       <c r="T3" t="n">
-        <v>1494.08859253928</v>
+        <v>5792</v>
       </c>
       <c r="U3" t="n">
-        <v>1185.944277</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1019.9771659108</v>
+        <v>476</v>
       </c>
       <c r="C4" t="n">
-        <v>3193.6146</v>
+        <v>14274</v>
       </c>
       <c r="D4" t="n">
-        <v>891.4767124584999</v>
+        <v>51740</v>
       </c>
       <c r="E4" t="n">
-        <v>1846.9041213</v>
+        <v>4529</v>
       </c>
       <c r="F4" t="n">
-        <v>3726.0980181319</v>
+        <v>12408</v>
       </c>
       <c r="G4" t="n">
-        <v>3896.822555227</v>
+        <v>23150</v>
       </c>
       <c r="H4" t="n">
-        <v>9686.001987</v>
+        <v>6069</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>36600.0595530152</v>
+        <v>131756</v>
       </c>
       <c r="K4" t="n">
-        <v>329.7187912972</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>971</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20998</v>
+      </c>
       <c r="M4" t="n">
-        <v>-12.60371898</v>
+        <v>3919</v>
       </c>
       <c r="N4" t="n">
-        <v>9678.021456721001</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>43961</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-663</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5033</v>
+      </c>
       <c r="Q4" t="n">
-        <v>27958.9674698417</v>
+        <v>122250</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>99326.8475387397</v>
+        <v>441465</v>
       </c>
       <c r="T4" t="n">
-        <v>2320.35928769979</v>
+        <v>3675</v>
       </c>
       <c r="U4" t="n">
-        <v>1748.4150529822</v>
+        <v>9329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1171.2799824229</v>
+        <v>412.7375579815</v>
       </c>
       <c r="C5" t="n">
-        <v>3647.9591857</v>
+        <v>14001.1494870959</v>
       </c>
       <c r="D5" t="n">
-        <v>2937.783079054</v>
+        <v>54594.5644295238</v>
       </c>
       <c r="E5" t="n">
-        <v>172.376526896</v>
+        <v>6531.3273038839</v>
       </c>
       <c r="F5" t="n">
-        <v>5682.14961816963</v>
+        <v>11463.1376384137</v>
       </c>
       <c r="G5" t="n">
-        <v>4353.8839661521</v>
+        <v>14302.3222683364</v>
       </c>
       <c r="H5" t="n">
-        <v>17080.335552</v>
+        <v>26605.9559718521</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>32061.2582422766</v>
+        <v>155686.83143367</v>
       </c>
       <c r="K5" t="n">
-        <v>76.0694171943</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>441.636629972239</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15511.3108240948</v>
+      </c>
       <c r="M5" t="n">
-        <v>149.400626704</v>
+        <v>4517.43077311919</v>
       </c>
       <c r="N5" t="n">
-        <v>13974.3298631939</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>37526.6485240142</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-305.1633956103</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1329.298665</v>
+      </c>
       <c r="Q5" t="n">
-        <v>24101.3065986683</v>
+        <v>148048.534539444</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>99465.0971059884</v>
+        <v>488648.517133647</v>
       </c>
       <c r="T5" t="n">
-        <v>1623.31426914264</v>
+        <v>3680.47369709447</v>
       </c>
       <c r="U5" t="n">
-        <v>568.9943365410001</v>
+        <v>5763.45842417451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1582.885026106</v>
+        <v>15665</v>
       </c>
       <c r="C6" t="n">
-        <v>4394.1236463</v>
+        <v>14248</v>
       </c>
       <c r="D6" t="n">
-        <v>2351.5215068243</v>
+        <v>59740</v>
       </c>
       <c r="E6" t="n">
-        <v>4242.790175173</v>
+        <v>5115</v>
       </c>
       <c r="F6" t="n">
-        <v>13503.8951737877</v>
+        <v>15624</v>
       </c>
       <c r="G6" t="n">
-        <v>2483.6065423085</v>
+        <v>21112</v>
       </c>
       <c r="H6" t="n">
-        <v>16958.129672</v>
+        <v>7181</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>42312.9777525314</v>
+        <v>133478</v>
       </c>
       <c r="K6" t="n">
-        <v>376.8070546346</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>742</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2396</v>
+      </c>
       <c r="M6" t="n">
-        <v>926.128043896</v>
+        <v>4903</v>
       </c>
       <c r="N6" t="n">
-        <v>21299.93</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>61050</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8029</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15066</v>
+      </c>
       <c r="Q6" t="n">
-        <v>23968.2196173171</v>
+        <v>139435</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>123282.777358951</v>
+        <v>523831</v>
       </c>
       <c r="T6" t="n">
-        <v>2409.89054482551</v>
+        <v>1587</v>
       </c>
       <c r="U6" t="n">
-        <v>3379.96289262466</v>
+        <v>38876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1629</v>
+        <v>-1037.708779</v>
       </c>
       <c r="C7" t="n">
-        <v>4607</v>
+        <v>15415.9860426655</v>
       </c>
       <c r="D7" t="n">
-        <v>4028</v>
+        <v>170771.95821041</v>
       </c>
       <c r="E7" t="n">
-        <v>10825</v>
+        <v>2096.60612452363</v>
       </c>
       <c r="F7" t="n">
-        <v>20300</v>
+        <v>20640.6667413405</v>
       </c>
       <c r="G7" t="n">
-        <v>11214</v>
+        <v>-17470.7340743248</v>
       </c>
       <c r="H7" t="n">
-        <v>19692</v>
+        <v>-21390.4919214396</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>49967</v>
+        <v>168138.413345137</v>
       </c>
       <c r="K7" t="n">
-        <v>113</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>-208.1919543362</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-21137.0599387358</v>
+      </c>
       <c r="M7" t="n">
-        <v>1421</v>
+        <v>11297.9840178457</v>
       </c>
       <c r="N7" t="n">
-        <v>22790</v>
+        <v>129871.722270934</v>
       </c>
       <c r="O7" t="n">
-        <v>3416</v>
+        <v>11096.3481221044</v>
       </c>
       <c r="P7" t="n">
-        <v>1191</v>
+        <v>23410.241</v>
       </c>
       <c r="Q7" t="n">
-        <v>32572</v>
+        <v>144189.666808391</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>162457</v>
+        <v>609657.357639732</v>
       </c>
       <c r="T7" t="n">
-        <v>2858</v>
+        <v>2779.66387338</v>
       </c>
       <c r="U7" t="n">
-        <v>-2300</v>
+        <v>-8167.04550782342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8714</v>
+        <v>38685.8086690056</v>
       </c>
       <c r="C8" t="n">
-        <v>6567</v>
+        <v>17936.3997432601</v>
       </c>
       <c r="D8" t="n">
-        <v>5251</v>
+        <v>156974.513781366</v>
       </c>
       <c r="E8" t="n">
-        <v>8154</v>
+        <v>11838.7955126445</v>
       </c>
       <c r="F8" t="n">
-        <v>25575</v>
+        <v>13020.9329320823</v>
       </c>
       <c r="G8" t="n">
-        <v>20713</v>
+        <v>26777.9538172442</v>
       </c>
       <c r="H8" t="n">
-        <v>32618</v>
+        <v>-29469.3559550718</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>52037</v>
+        <v>176240.474536219</v>
       </c>
       <c r="K8" t="n">
-        <v>384</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>-74.2145374050744</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-39062.1114098432</v>
+      </c>
       <c r="M8" t="n">
-        <v>1201</v>
+        <v>14427.1842680231</v>
       </c>
       <c r="N8" t="n">
-        <v>38536</v>
+        <v>174557.958810111</v>
       </c>
       <c r="O8" t="n">
-        <v>8986</v>
+        <v>-6145.1414096032</v>
       </c>
       <c r="P8" t="n">
-        <v>5437</v>
+        <v>11600.0226</v>
       </c>
       <c r="Q8" t="n">
-        <v>39756</v>
+        <v>158128.622846436</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>212332</v>
+        <v>729738.257773972</v>
       </c>
       <c r="T8" t="n">
-        <v>3105</v>
+        <v>5076.1471519984</v>
       </c>
       <c r="U8" t="n">
-        <v>-2183</v>
+        <v>12245.1993495883</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-485</v>
+        <v>24731</v>
       </c>
       <c r="C9" t="n">
-        <v>8577</v>
+        <v>21065</v>
       </c>
       <c r="D9" t="n">
-        <v>1529</v>
+        <v>66081</v>
       </c>
       <c r="E9" t="n">
-        <v>2401</v>
+        <v>-229</v>
       </c>
       <c r="F9" t="n">
-        <v>31296</v>
+        <v>11127</v>
       </c>
       <c r="G9" t="n">
-        <v>21100</v>
+        <v>10466</v>
       </c>
       <c r="H9" t="n">
-        <v>29119</v>
+        <v>6179</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>79629</v>
+        <v>140263</v>
       </c>
       <c r="K9" t="n">
-        <v>50</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>-148</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10762</v>
+      </c>
       <c r="M9" t="n">
-        <v>3716</v>
-      </c>
-      <c r="N9" t="n">
-        <v>29475</v>
-      </c>
+        <v>6881</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-5340</v>
+        <v>-4482</v>
       </c>
       <c r="P9" t="n">
-        <v>3320</v>
+        <v>21206</v>
       </c>
       <c r="Q9" t="n">
-        <v>52096</v>
+        <v>178203</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>224854</v>
+        <v>618826</v>
       </c>
       <c r="T9" t="n">
-        <v>3865</v>
+        <v>2344</v>
       </c>
       <c r="U9" t="n">
-        <v>-4197</v>
+        <v>24886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1589</v>
+        <v>9591.902346020401</v>
       </c>
       <c r="C10" t="n">
-        <v>8791</v>
+        <v>23226.0018329299</v>
       </c>
       <c r="D10" t="n">
-        <v>-643</v>
+        <v>-59066.8933562018</v>
       </c>
       <c r="E10" t="n">
-        <v>-1922</v>
+        <v>3897.33954838871</v>
       </c>
       <c r="F10" t="n">
-        <v>20911</v>
+        <v>3210.96980572194</v>
       </c>
       <c r="G10" t="n">
-        <v>11507</v>
+        <v>-9969.582283154239</v>
       </c>
       <c r="H10" t="n">
-        <v>27216</v>
+        <v>1249.84015281377</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>132380</v>
+        <v>104972.520045565</v>
       </c>
       <c r="K10" t="n">
-        <v>416</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>-515.748386691314</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-12685.7089010466</v>
+      </c>
       <c r="M10" t="n">
-        <v>2999</v>
-      </c>
-      <c r="N10" t="n">
-        <v>29585</v>
-      </c>
+        <v>6383.9780414275</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>6272</v>
+        <v>-1176.89039177177</v>
       </c>
       <c r="P10" t="n">
-        <v>-1206</v>
+        <v>17989.4611464524</v>
       </c>
       <c r="Q10" t="n">
-        <v>107619</v>
+        <v>125268.380579419</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>326391</v>
+        <v>336289.212604634</v>
       </c>
       <c r="T10" t="n">
-        <v>3803</v>
+        <v>2250.5155087571</v>
       </c>
       <c r="U10" t="n">
-        <v>1165</v>
+        <v>8282.97952113632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>469.058602</v>
+        <v>-4930.0029157362</v>
       </c>
       <c r="C11" t="n">
-        <v>6304.872357</v>
+        <v>23543.305822857</v>
       </c>
       <c r="D11" t="n">
-        <v>19394.60243352</v>
+        <v>5761.83770047909</v>
       </c>
       <c r="E11" t="n">
-        <v>2377.8688616173</v>
+        <v>-1352.73814524881</v>
       </c>
       <c r="F11" t="n">
-        <v>25772.9332938874</v>
+        <v>12253.9802086376</v>
       </c>
       <c r="G11" t="n">
-        <v>33260.799686</v>
+        <v>-8547.33019996966</v>
       </c>
       <c r="H11" t="n">
-        <v>31934.3734470527</v>
+        <v>-1330.77075059093</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>130024.73085</v>
+        <v>142246.350545717</v>
       </c>
       <c r="K11" t="n">
-        <v>713.992937</v>
+        <v>-276.314319174454</v>
       </c>
       <c r="L11" t="n">
-        <v>46692</v>
+        <v>-9513.4488912506</v>
       </c>
       <c r="M11" t="n">
-        <v>4071.8999029698</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39202.8748333348</v>
-      </c>
+        <v>6740.02962401207</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-2354.27387711411</v>
+        <v>4897.9611192945</v>
       </c>
       <c r="P11" t="n">
-        <v>-1547.19305069493</v>
+        <v>7520.6385</v>
       </c>
       <c r="Q11" t="n">
-        <v>97226.5845625244</v>
+        <v>157961.742326503</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>416212.724786703</v>
+        <v>445066.770738427</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.99074898</v>
+        <v>3974.6317953373</v>
       </c>
       <c r="U11" t="n">
-        <v>2323.54249251305</v>
+        <v>-8430.134099411271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-727</v>
+        <v>15612.1046832152</v>
       </c>
       <c r="C12" t="n">
-        <v>7348</v>
+        <v>19001.5079692517</v>
       </c>
       <c r="D12" t="n">
-        <v>26753</v>
+        <v>-5795.00305590077</v>
       </c>
       <c r="E12" t="n">
-        <v>1530</v>
+        <v>4488.71539304924</v>
       </c>
       <c r="F12" t="n">
-        <v>13234</v>
+        <v>20168.2662061495</v>
       </c>
       <c r="G12" t="n">
-        <v>36154</v>
+        <v>-2330.1874204313</v>
       </c>
       <c r="H12" t="n">
-        <v>25057</v>
+        <v>1931.74147557777</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>114222</v>
+        <v>196204.040297499</v>
       </c>
       <c r="K12" t="n">
-        <v>1072</v>
+        <v>-156.585166848934</v>
       </c>
       <c r="L12" t="n">
-        <v>20542</v>
+        <v>3491.8095724228</v>
       </c>
       <c r="M12" t="n">
-        <v>3211</v>
-      </c>
-      <c r="N12" t="n">
-        <v>21196</v>
-      </c>
+        <v>7581.99869285268</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-6466</v>
+        <v>4550.17380124909</v>
       </c>
       <c r="P12" t="n">
-        <v>2258</v>
+        <v>30932.4672</v>
       </c>
       <c r="Q12" t="n">
-        <v>95764</v>
+        <v>184166.436193189</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>356014</v>
+        <v>675375.359601655</v>
       </c>
       <c r="T12" t="n">
-        <v>5792</v>
+        <v>7448.5521772578</v>
       </c>
       <c r="U12" t="n">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14274</v>
-      </c>
-      <c r="D13" t="n">
-        <v>51740</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4529</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12408</v>
-      </c>
-      <c r="G13" t="n">
-        <v>23150</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6069</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>131756</v>
-      </c>
-      <c r="K13" t="n">
-        <v>971</v>
-      </c>
-      <c r="L13" t="n">
-        <v>20998</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3919</v>
-      </c>
-      <c r="N13" t="n">
-        <v>43961</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-663</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5033</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>122250</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>441465</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3675</v>
-      </c>
-      <c r="U13" t="n">
-        <v>9329</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>412.7375579815</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14001.1494870959</v>
-      </c>
-      <c r="D14" t="n">
-        <v>54594.5644295238</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6531.3273038839</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11463.1376384137</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14302.3222683364</v>
-      </c>
-      <c r="H14" t="n">
-        <v>26605.9559718521</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>155686.83143367</v>
-      </c>
-      <c r="K14" t="n">
-        <v>441.636629972239</v>
-      </c>
-      <c r="L14" t="n">
-        <v>15511.3108240948</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4517.43077311919</v>
-      </c>
-      <c r="N14" t="n">
-        <v>37526.6485240142</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-305.1633956103</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1329.298665</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>148048.534539444</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>488648.517133647</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3680.47369709447</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5763.45842417451</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>15665</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14248</v>
-      </c>
-      <c r="D15" t="n">
-        <v>59740</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5115</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15624</v>
-      </c>
-      <c r="G15" t="n">
-        <v>21112</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7181</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>133478</v>
-      </c>
-      <c r="K15" t="n">
-        <v>742</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-2396</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4903</v>
-      </c>
-      <c r="N15" t="n">
-        <v>61050</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8029</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15066</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>139435</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>523831</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1587</v>
-      </c>
-      <c r="U15" t="n">
-        <v>38876</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-1037.708779</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15415.9860426655</v>
-      </c>
-      <c r="D16" t="n">
-        <v>170771.95821041</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2096.60612452363</v>
-      </c>
-      <c r="F16" t="n">
-        <v>20640.6667413405</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-17470.7340743248</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-21390.4919214396</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>168138.413345137</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-208.1919543362</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-21137.0599387358</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11297.9840178457</v>
-      </c>
-      <c r="N16" t="n">
-        <v>129871.722270934</v>
-      </c>
-      <c r="O16" t="n">
-        <v>11096.3481221044</v>
-      </c>
-      <c r="P16" t="n">
-        <v>23410.241</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>144189.666808391</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>609657.357639732</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2779.66387338</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-8167.04550782342</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>38685.8086690056</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17936.3997432601</v>
-      </c>
-      <c r="D17" t="n">
-        <v>156974.513781366</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11838.7955126445</v>
-      </c>
-      <c r="F17" t="n">
-        <v>13020.9329320823</v>
-      </c>
-      <c r="G17" t="n">
-        <v>26777.9538172442</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-29469.3559550718</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>176240.474536219</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-74.2145374050744</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-39062.1114098432</v>
-      </c>
-      <c r="M17" t="n">
-        <v>14427.1842680231</v>
-      </c>
-      <c r="N17" t="n">
-        <v>174557.958810111</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-6145.1414096032</v>
-      </c>
-      <c r="P17" t="n">
-        <v>11600.0226</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>158128.622846436</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>729738.257773972</v>
-      </c>
-      <c r="T17" t="n">
-        <v>5076.1471519984</v>
-      </c>
-      <c r="U17" t="n">
-        <v>12245.1993495883</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24731</v>
-      </c>
-      <c r="C18" t="n">
-        <v>21065</v>
-      </c>
-      <c r="D18" t="n">
-        <v>66081</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-229</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11127</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10466</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6179</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>140263</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-148</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10762</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6881</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>-4482</v>
-      </c>
-      <c r="P18" t="n">
-        <v>21206</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>178203</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>618826</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2344</v>
-      </c>
-      <c r="U18" t="n">
-        <v>24886</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9591.902346020401</v>
-      </c>
-      <c r="C19" t="n">
-        <v>23226.0018329299</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-59066.8933562018</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3897.33954838871</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3210.96980572194</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-9969.582283154239</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1249.84015281377</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>104972.520045565</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-515.748386691314</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-12685.7089010466</v>
-      </c>
-      <c r="M19" t="n">
-        <v>6383.9780414275</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-1176.89039177177</v>
-      </c>
-      <c r="P19" t="n">
-        <v>17989.4611464524</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>125268.380579419</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>336289.212604634</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2250.5155087571</v>
-      </c>
-      <c r="U19" t="n">
-        <v>8282.97952113632</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-4930.0029157362</v>
-      </c>
-      <c r="C20" t="n">
-        <v>23543.305822857</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5761.83770047909</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-1352.73814524881</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12253.9802086376</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-8547.33019996966</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-1330.77075059093</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>142246.350545717</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-276.314319174454</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-9513.4488912506</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6740.02962401207</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>4897.9611192945</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7520.6385</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>157961.742326503</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>445066.770738427</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3974.6317953373</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-8430.134099411271</v>
+        <v>21951.5216392024</v>
       </c>
     </row>
   </sheetData>
